--- a/Simper_OTU_Time.xlsx
+++ b/Simper_OTU_Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\Documents\GitHub\Stevia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68F809A-C44C-4ABD-9A6C-43A97DB155C1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F460A17-BF6D-4C5F-9682-D05417E73A47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" xr2:uid="{67AADC53-CD55-4474-877D-044399488367}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="45">
   <si>
     <t>OTU</t>
   </si>
@@ -104,9 +104,6 @@
     <t>SC</t>
   </si>
   <si>
-    <t>TV</t>
-  </si>
-  <si>
     <t>SC_TV</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>LF</t>
   </si>
   <si>
-    <t>LF_HF_SC_TV</t>
-  </si>
-  <si>
     <t>Bacteroides</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>NK4A136</t>
+  </si>
+  <si>
+    <t>HF_TV</t>
+  </si>
+  <si>
+    <t>LF_HF</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -203,9 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBC1E2D-1B47-4901-95D9-3E560A261E6D}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -569,424 +570,427 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.1097124033316597E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.3837010994044098E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.858881E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.766556E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.0065199999999997E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.1757080000000002E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.156756E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.2873230000000002E-2</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1">
-        <v>7.1097124033316597E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.3837010994044098E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.858881E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6.766556E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.0065199999999997E-2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4.1757080000000002E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6.156756E-2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6.2873230000000002E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.0819010000000001E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.219407E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.1729271E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.10436438200000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.0997007543537203E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.100423193991833</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.58069281985849E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8.7808481282931602E-2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.7260038000000002E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.8117318E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.3857899999999999E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.1224910000000008E-3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.115047413674704</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.6956290311864101E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.3416467665020399E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5.3147724831653998E-3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.8681387999999999E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.2827599200000002E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.1651829799999997E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.3351600999999998E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.34219431382856E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.09051613007989E-4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.5001180399999997E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.6278119999999998E-4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.9279402560000004E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.9653470080000003E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.7031548589999998E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.3212368356205797E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.8112505811250599E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.7467764818751599E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.30718963182978E-4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.7591262E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.6448984E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.122807E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.9976420000000001E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.7003741442615604E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.1614690555852998E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.6869437E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.5793859E-2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.7977929999999999E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.1144189999999995E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.5924510000000001E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.0303370000000002E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.8407239210891001E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.47654237563801E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.2067010591622299E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7.6680712901025294E-2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.0819010000000001E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.219407E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.1729271E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.10436438200000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.0997007543537203E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.100423193991833</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.58069281985849E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>8.7808481282931602E-2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.4163520000000004E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.6708805999999998E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.5121359999999999E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.5658368000000004E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.3983493886395799E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.6422285036310397E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.90725072021207E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7.7684787244468201E-2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.4456970000000002E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.1825779999999998E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8.7062914046147299E-2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.4882071233987603E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.5319076329317695E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.7784130999999999E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.526552342E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4.8057780010000002E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.5274149999999996E-5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3.7260038000000002E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.8117318E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.3857899999999999E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.1224910000000008E-3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.115047413674704</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.6956290311864101E-3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7.3416467665020399E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5.3147724831653998E-3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.8681387999999999E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.2827599200000002E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7.1651829799999997E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.3351600999999998E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6.34219431382856E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.09051613007989E-4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>6.5001180399999997E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.6278119999999998E-4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.9279402560000004E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.9653470080000003E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.7031548589999998E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.3212368356205797E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.8112505811250599E-5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.7467764818751599E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.30718963182978E-4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.7591262E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.6448984E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.122807E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.9976420000000001E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.7003741442615604E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.1614690555852998E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.6869437E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.5793859E-2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7.7977929999999999E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8.1144189999999995E-3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.5924510000000001E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.0303370000000002E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.8407239210891001E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6.47654237563801E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.2067010591622299E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7.6680712901025294E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="B12" s="2">
+        <v>6.0474615656430104E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.9151089864262503E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.27103506E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.0200009559999998E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.1751572E-4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.2830123900000003E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6.6032750000000006E-5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3.8545544999999998E-3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8.4163520000000004E-4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.6708805999999998E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.5121359999999999E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.5658368000000004E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.3983493886395799E-3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6.6422285036310397E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.90725072021207E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7.7684787244468201E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6.4456970000000002E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.1825779999999998E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>8.7062914046147299E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.4882071233987603E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8.5319076329317695E-3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.7784130999999999E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.526552342E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4.8057780010000002E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6.5274149999999996E-5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6.0474615656430104E-3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7.9151089864262503E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3.27103506E-3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>7.0200009559999998E-3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.1751572E-4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6.2830123900000003E-3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6.6032750000000006E-5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3.8545544999999998E-3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-    </row>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
